--- a/RMM/guidances/templates/resources/Plantilla - Plan de tratamiento de Riesgos.xlsx
+++ b/RMM/guidances/templates/resources/Plantilla - Plan de tratamiento de Riesgos.xlsx
@@ -5,18 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Personal\Desktop\Artefactos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Artefactos\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="255" yWindow="465" windowWidth="28395" windowHeight="16335"/>
+    <workbookView xWindow="28800" yWindow="495" windowWidth="38400" windowHeight="21105" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Portada" sheetId="1" r:id="rId1"/>
     <sheet name="Historial Documento" sheetId="2" r:id="rId2"/>
     <sheet name="Alcance" sheetId="12" r:id="rId3"/>
-    <sheet name="Lista de Riesgos" sheetId="6" r:id="rId4"/>
-    <sheet name="Tratamiento" sheetId="5" r:id="rId5"/>
+    <sheet name="Tratamiento" sheetId="5" r:id="rId4"/>
+    <sheet name="Seguimiento" sheetId="14" r:id="rId5"/>
     <sheet name="Lista" sheetId="13" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="74">
   <si>
     <t>Versión</t>
   </si>
@@ -55,12 +55,6 @@
     <t>Autores</t>
   </si>
   <si>
-    <t>#</t>
-  </si>
-  <si>
-    <t>ID-Riesgo</t>
-  </si>
-  <si>
     <t>Riesgo</t>
   </si>
   <si>
@@ -124,26 +118,10 @@
     <t>::::::::::::::::::::::::</t>
   </si>
   <si>
-    <t>Controles</t>
-  </si>
-  <si>
     <t>Responsable</t>
   </si>
   <si>
     <t>&lt;&lt;Responsable&gt;&gt;</t>
-  </si>
-  <si>
-    <t>Interdependencias</t>
-  </si>
-  <si>
-    <t>n</t>
-  </si>
-  <si>
-    <t>&lt;&lt;Ingrese el nombre del Riesgo&gt;&gt;</t>
-  </si>
-  <si>
-    <t>&lt;&lt;Relaciones con
-otros riesgos&gt;&gt;</t>
   </si>
   <si>
     <t>Instrucciones</t>
@@ -189,12 +167,6 @@
     <t xml:space="preserve">&lt;&lt;Ingrese los recursos requeridos adicionales para tener éxito en la implementación&gt;&gt; </t>
   </si>
   <si>
-    <t>::::::::::::::::::::::::::::::::::::::::::::::</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;&lt; Nota 1: El periodo hace referencia al tiempo para la implementación de las acciones de respuesta para el tratamiento de los riesgos.&gt;&gt;  </t>
-  </si>
-  <si>
     <t>Firma</t>
   </si>
   <si>
@@ -210,15 +182,96 @@
     <t>Plan de Tratamiento de Riesgos</t>
   </si>
   <si>
-    <t>&lt;&lt; Describa el alcance del plan de tratamiento de riesgos respecto a los riesgos que serán abordados a través de este plan así como tambien el impacto potencial de los mismos sobre los objetivos del activo.
-En el plan de tratamiento de riesgos se puede abordar de uno o múltiples riesgos conforme a los identificados en el perfil de riesgos del activo.&gt;</t>
+    <t>Tipo Respuesta</t>
+  </si>
+  <si>
+    <t>Aceptar</t>
+  </si>
+  <si>
+    <t>Compartir</t>
+  </si>
+  <si>
+    <t>Escalar</t>
+  </si>
+  <si>
+    <t>Evitar</t>
+  </si>
+  <si>
+    <t>Mejorar</t>
+  </si>
+  <si>
+    <t>Mitigar</t>
+  </si>
+  <si>
+    <t>Transferir</t>
+  </si>
+  <si>
+    <t>Tipo de Respuesta</t>
+  </si>
+  <si>
+    <t>&lt;&lt;Lección aprendida n&gt;&gt;</t>
+  </si>
+  <si>
+    <t>::::::::::::::::::::::::::::::::::::::::</t>
+  </si>
+  <si>
+    <t>&lt;&lt;Lección aprendida 2&gt;&gt;</t>
+  </si>
+  <si>
+    <t>&lt;&lt;Lección aprendida 1&gt;&gt;</t>
+  </si>
+  <si>
+    <t>Completada</t>
+  </si>
+  <si>
+    <t>Lecciones aprendidas</t>
+  </si>
+  <si>
+    <t>Observaciones</t>
+  </si>
+  <si>
+    <t>Estado</t>
+  </si>
+  <si>
+    <t>Soporte</t>
+  </si>
+  <si>
+    <t>Fecha:</t>
+  </si>
+  <si>
+    <t>:::::::::::::::::::::::::::::::::::::::::</t>
+  </si>
+  <si>
+    <t>&lt;&lt;ID informe de 
+seguimiento del Riesgo&gt;&gt;</t>
+  </si>
+  <si>
+    <t>En progreso</t>
+  </si>
+  <si>
+    <t>No inicializada</t>
+  </si>
+  <si>
+    <t>En espera</t>
+  </si>
+  <si>
+    <t>&lt;&lt;Comentarios del seguimiento de la acción y la evaluación del cumplimiento.&gt;&gt;</t>
+  </si>
+  <si>
+    <t>&lt;&lt; Describa el alcance del plan de tratamiento de riesgos, respecto a los riesgos que serán abordados a través de este plan. En el plan de tratamiento de riesgos se puede abordar de uno o múltiples riesgos conforme a los identificados en el perfil de riesgos del activo. Remover esta instrucción del documento final&gt;&gt;</t>
+  </si>
+  <si>
+    <t>Métricas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;&lt; Nota 1: El período hace referencia al tiempo para la implementación de las acciones de respuesta para el tratamiento de los riesgos.&gt;&gt;  </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12">
+  <fonts count="11">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -277,21 +330,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="9"/>
       <color theme="1"/>
       <name val="Copperplate"/>
@@ -301,6 +339,14 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -381,18 +427,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -402,23 +446,19 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
+      <top/>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -427,7 +467,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -435,13 +475,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -455,19 +488,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -478,16 +502,16 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -499,10 +523,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -515,7 +538,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -524,17 +547,29 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -608,7 +643,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -906,8 +941,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B24:F30"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+    <sheetView showGridLines="0" topLeftCell="A19" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
@@ -917,7 +952,7 @@
   <sheetData>
     <row r="24" spans="2:6" ht="33">
       <c r="B24" s="1" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -933,7 +968,7 @@
     </row>
     <row r="26" spans="2:6" ht="20.25">
       <c r="B26" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -949,7 +984,7 @@
     </row>
     <row r="28" spans="2:6" ht="18.75">
       <c r="B28" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -984,85 +1019,85 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" showRuler="0" view="pageLayout" zoomScale="70" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView showGridLines="0" view="pageLayout" topLeftCell="A16" zoomScale="150" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
   <cols>
-    <col min="3" max="3" width="55.75" customWidth="1"/>
+    <col min="3" max="3" width="56.625" customWidth="1"/>
     <col min="4" max="4" width="34.875" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18.75">
-      <c r="A1" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
+      <c r="A1" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="38"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
+      <c r="C3" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="31"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="12"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="12"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="12"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
+      <c r="A6" s="9"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="11"/>
-      <c r="B7" s="11"/>
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
@@ -1070,8 +1105,8 @@
       <c r="H7" s="6"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
@@ -1079,66 +1114,66 @@
       <c r="H8" s="6"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="38" t="s">
+      <c r="A10" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="38"/>
-      <c r="C10" s="32" t="s">
+      <c r="B10" s="31"/>
+      <c r="C10" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="32" t="s">
-        <v>50</v>
-      </c>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
+      <c r="D10" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="41"/>
-      <c r="B11" s="42"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
+      <c r="A11" s="34"/>
+      <c r="B11" s="35"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="41"/>
-      <c r="B12" s="42"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
+      <c r="A12" s="34"/>
+      <c r="B12" s="35"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="41"/>
-      <c r="B13" s="42"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
+      <c r="A13" s="34"/>
+      <c r="B13" s="35"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="11"/>
-      <c r="B14" s="11"/>
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
@@ -1146,8 +1181,8 @@
       <c r="H14" s="6"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="11"/>
-      <c r="B15" s="11"/>
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
@@ -1155,8 +1190,8 @@
       <c r="H15" s="6"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="11"/>
-      <c r="B16" s="11"/>
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
@@ -1164,15 +1199,15 @@
       <c r="H16" s="6"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="B17" s="13"/>
-      <c r="C17" s="33" t="s">
-        <v>51</v>
-      </c>
-      <c r="D17" s="34" t="s">
-        <v>53</v>
+      <c r="A17" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" s="10"/>
+      <c r="C17" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="28" t="s">
+        <v>44</v>
       </c>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
@@ -1180,57 +1215,57 @@
       <c r="H17" s="6"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="38" t="s">
+      <c r="A18" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="B18" s="38"/>
-      <c r="C18" s="32" t="s">
+      <c r="B18" s="31"/>
+      <c r="C18" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="D18" s="32" t="s">
-        <v>50</v>
-      </c>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
+      <c r="D18" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="39"/>
-      <c r="B19" s="39"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
+      <c r="A19" s="32"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="39"/>
-      <c r="B20" s="39"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
+      <c r="A20" s="32"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="39"/>
-      <c r="B21" s="39"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
+      <c r="A21" s="32"/>
+      <c r="B21" s="32"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -1264,7 +1299,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B41"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" view="pageLayout" zoomScale="70" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+    <sheetView showGridLines="0" showRowColHeaders="0" view="pageLayout" zoomScale="150" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection sqref="A1:A41"/>
     </sheetView>
   </sheetViews>
@@ -1274,130 +1309,130 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.95" customHeight="1">
-      <c r="A1" s="43" t="s">
-        <v>55</v>
+      <c r="A1" s="36" t="s">
+        <v>71</v>
       </c>
       <c r="B1" s="6"/>
     </row>
     <row r="2" spans="1:2" ht="15.95" customHeight="1">
-      <c r="A2" s="44"/>
+      <c r="A2" s="37"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="44"/>
+      <c r="A3" s="37"/>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="44"/>
+      <c r="A4" s="37"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="44"/>
+      <c r="A5" s="37"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="44"/>
+      <c r="A6" s="37"/>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="44"/>
+      <c r="A7" s="37"/>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="44"/>
+      <c r="A8" s="37"/>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="44"/>
+      <c r="A9" s="37"/>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="44"/>
+      <c r="A10" s="37"/>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="44"/>
+      <c r="A11" s="37"/>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="44"/>
+      <c r="A12" s="37"/>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="44"/>
+      <c r="A13" s="37"/>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="44"/>
+      <c r="A14" s="37"/>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="44"/>
+      <c r="A15" s="37"/>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="44"/>
+      <c r="A16" s="37"/>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="44"/>
+      <c r="A17" s="37"/>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="44"/>
+      <c r="A18" s="37"/>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="44"/>
+      <c r="A19" s="37"/>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="44"/>
+      <c r="A20" s="37"/>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="44"/>
+      <c r="A21" s="37"/>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="44"/>
+      <c r="A22" s="37"/>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="44"/>
+      <c r="A23" s="37"/>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="44"/>
+      <c r="A24" s="37"/>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="44"/>
+      <c r="A25" s="37"/>
     </row>
     <row r="26" spans="1:1">
-      <c r="A26" s="44"/>
+      <c r="A26" s="37"/>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="44"/>
+      <c r="A27" s="37"/>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28" s="44"/>
+      <c r="A28" s="37"/>
     </row>
     <row r="29" spans="1:1">
-      <c r="A29" s="44"/>
+      <c r="A29" s="37"/>
     </row>
     <row r="30" spans="1:1">
-      <c r="A30" s="44"/>
+      <c r="A30" s="37"/>
     </row>
     <row r="31" spans="1:1">
-      <c r="A31" s="44"/>
+      <c r="A31" s="37"/>
     </row>
     <row r="32" spans="1:1">
-      <c r="A32" s="44"/>
+      <c r="A32" s="37"/>
     </row>
     <row r="33" spans="1:1">
-      <c r="A33" s="44"/>
+      <c r="A33" s="37"/>
     </row>
     <row r="34" spans="1:1">
-      <c r="A34" s="44"/>
+      <c r="A34" s="37"/>
     </row>
     <row r="35" spans="1:1">
-      <c r="A35" s="44"/>
+      <c r="A35" s="37"/>
     </row>
     <row r="36" spans="1:1">
-      <c r="A36" s="44"/>
+      <c r="A36" s="37"/>
     </row>
     <row r="37" spans="1:1">
-      <c r="A37" s="44"/>
+      <c r="A37" s="37"/>
     </row>
     <row r="38" spans="1:1">
-      <c r="A38" s="44"/>
+      <c r="A38" s="37"/>
     </row>
     <row r="39" spans="1:1">
-      <c r="A39" s="44"/>
+      <c r="A39" s="37"/>
     </row>
     <row r="40" spans="1:1">
-      <c r="A40" s="44"/>
+      <c r="A40" s="37"/>
     </row>
     <row r="41" spans="1:1">
-      <c r="A41" s="44"/>
+      <c r="A41" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1417,605 +1452,572 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G42"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" showRuler="0" showWhiteSpace="0" view="pageLayout" zoomScale="70" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView showGridLines="0" view="pageLayout" topLeftCell="A19" zoomScale="150" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="4.375" customWidth="1"/>
-    <col min="2" max="2" width="10.125" customWidth="1"/>
-    <col min="3" max="3" width="46.5" customWidth="1"/>
-    <col min="4" max="4" width="22.25" customWidth="1"/>
-    <col min="5" max="5" width="25.375" customWidth="1"/>
-    <col min="6" max="6" width="13.875" customWidth="1"/>
+    <col min="1" max="2" width="10" customWidth="1"/>
+    <col min="3" max="3" width="9.375" customWidth="1"/>
+    <col min="4" max="4" width="10.625" customWidth="1"/>
+    <col min="5" max="5" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.875" customWidth="1"/>
     <col min="7" max="7" width="17.125" customWidth="1"/>
+    <col min="8" max="8" width="15.125" customWidth="1"/>
+    <col min="9" max="9" width="13.875" customWidth="1"/>
+    <col min="10" max="10" width="7" customWidth="1"/>
+    <col min="11" max="11" width="6" customWidth="1"/>
+    <col min="12" max="12" width="6.125" customWidth="1"/>
+    <col min="13" max="13" width="13" customWidth="1"/>
+    <col min="14" max="14" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:14">
+      <c r="K1" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="L1" s="40"/>
+    </row>
+    <row r="2" spans="1:14" ht="24" customHeight="1">
+      <c r="A2" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-    </row>
-    <row r="2" spans="1:7" ht="30">
-      <c r="A2" s="35">
-        <v>1</v>
-      </c>
-      <c r="B2" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="23" t="s">
+      <c r="B2" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="22" t="s">
         <v>33</v>
       </c>
       <c r="D2" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="35">
-        <v>2</v>
-      </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="35"/>
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5" s="23"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="9"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="9"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="9"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="9"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="9"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="9"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-    </row>
-    <row r="17" spans="4:7">
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-    </row>
-    <row r="18" spans="4:7">
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-    </row>
-    <row r="19" spans="4:7">
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-    </row>
-    <row r="20" spans="4:7">
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-    </row>
-    <row r="21" spans="4:7">
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-    </row>
-    <row r="22" spans="4:7">
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-    </row>
-    <row r="23" spans="4:7">
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-    </row>
-    <row r="24" spans="4:7">
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-    </row>
-    <row r="25" spans="4:7">
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-    </row>
-    <row r="26" spans="4:7">
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-    </row>
-    <row r="27" spans="4:7">
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-    </row>
-    <row r="28" spans="4:7">
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-    </row>
-    <row r="29" spans="4:7">
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-    </row>
-    <row r="30" spans="4:7">
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-    </row>
-    <row r="31" spans="4:7">
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-    </row>
-    <row r="32" spans="4:7">
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
-    </row>
-    <row r="33" spans="4:7">
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
-    </row>
-    <row r="34" spans="4:7">
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
-    </row>
-    <row r="35" spans="4:7">
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
-    </row>
-    <row r="36" spans="4:7">
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="7"/>
-    </row>
-    <row r="37" spans="4:7">
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="7"/>
-    </row>
-    <row r="38" spans="4:7">
-      <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
-      <c r="G38" s="7"/>
-    </row>
-    <row r="39" spans="4:7">
-      <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="7"/>
-      <c r="G39" s="7"/>
-    </row>
-    <row r="40" spans="4:7">
-      <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="7"/>
-      <c r="G40" s="7"/>
-    </row>
-    <row r="41" spans="4:7">
-      <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
-      <c r="F41" s="7"/>
-      <c r="G41" s="7"/>
-    </row>
-    <row r="42" spans="4:7">
-      <c r="D42" s="7"/>
-      <c r="E42" s="7"/>
-      <c r="F42" s="7"/>
-      <c r="G42" s="7"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="1.5" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="5" orientation="portrait" r:id="rId1"/>
-  <headerFooter>
-    <oddHeader>&amp;L&amp;"Calibri,Normal"&amp;K000000&amp;G&amp;C&amp;"Calibri,Normal"&amp;K000000
-&amp;"Helvetica Bold,Negrita"Riesgos&amp;R&amp;"System Font,Normal"&amp;10&amp;K000000
-Plan de Tratamiento de Riesgos</oddHeader>
-    <oddFooter>Page &amp;P</oddFooter>
-  </headerFooter>
-  <legacyDrawingHF r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M14"/>
-  <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" showRuler="0" view="pageLayout" zoomScale="80" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
-  <cols>
-    <col min="1" max="1" width="10" customWidth="1"/>
-    <col min="2" max="2" width="9.375" customWidth="1"/>
-    <col min="3" max="3" width="10.625" customWidth="1"/>
-    <col min="4" max="4" width="8.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.875" customWidth="1"/>
-    <col min="6" max="6" width="16.375" customWidth="1"/>
-    <col min="7" max="7" width="15.125" customWidth="1"/>
-    <col min="8" max="8" width="13.875" customWidth="1"/>
-    <col min="9" max="9" width="7" customWidth="1"/>
-    <col min="10" max="10" width="6" customWidth="1"/>
-    <col min="11" max="11" width="6.125" customWidth="1"/>
-    <col min="12" max="12" width="13" customWidth="1"/>
-    <col min="13" max="13" width="12.375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13">
-      <c r="J1" s="46" t="s">
+      <c r="E2" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="I2" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="K2" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="M2" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="N2" s="25" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="89.25">
+      <c r="A3" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="20"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="N3" s="19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="38"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="16"/>
+      <c r="H4" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="14"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="5"/>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="38"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="G5" s="13"/>
+      <c r="H5" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" s="14"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="5"/>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="38"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="13"/>
+      <c r="H6" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" s="14"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="5"/>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="13"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="5"/>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="13"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="19"/>
+      <c r="N8" s="5"/>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="13"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="19"/>
+      <c r="N9" s="5"/>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="I10" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="K1" s="47"/>
-    </row>
-    <row r="2" spans="1:13" ht="24" customHeight="1">
-      <c r="A2" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="D2" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="G2" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="H2" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="I2" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="J2" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="K2" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="L2" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="M2" s="31" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="89.25">
-      <c r="A3" s="45" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="G3" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="I3" s="26"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="M3" s="25" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="45"/>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="20"/>
-      <c r="G4" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4" s="17"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="25"/>
-      <c r="M4" s="5"/>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" s="45"/>
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="F5" s="16"/>
-      <c r="G5" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="H5" s="17"/>
-      <c r="I5" s="27"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="25"/>
-      <c r="M5" s="5"/>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="45"/>
-      <c r="B6" s="24"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="16"/>
-      <c r="G6" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="H6" s="17"/>
-      <c r="I6" s="27"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="25"/>
-      <c r="M6" s="5"/>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="27"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="25"/>
-      <c r="M7" s="5"/>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="27"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="25"/>
-      <c r="M8" s="5"/>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="25"/>
-      <c r="M9" s="5"/>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="H10" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="I10" s="5"/>
-    </row>
-    <row r="13" spans="1:13" ht="16.5" thickBot="1"/>
-    <row r="14" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A14" s="48" t="s">
-        <v>49</v>
-      </c>
-      <c r="B14" s="49"/>
-      <c r="C14" s="49"/>
-      <c r="D14" s="49"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="49"/>
-      <c r="G14" s="49"/>
-      <c r="H14" s="50"/>
+      <c r="J10" s="5"/>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="B14" s="13"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A3:A6"/>
-    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="K1:L1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="1.5" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="5" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="5" scale="90" orientation="landscape" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;L&amp;"Calibri,Regular"&amp;K000000&amp;G&amp;C&amp;"Calibri,Regular"&amp;K000000
-&amp;"Calibri Bold,Bold"&amp;14Tratamiento del Riesgo&amp;R&amp;"Calibri,Regular"&amp;K000000
+    <oddHeader>&amp;L&amp;"Calibri,Normal"&amp;K000000&amp;G&amp;C&amp;"Calibri,Normal"&amp;K000000
+&amp;"Calibri Bold,Negrita"&amp;14Tratamiento de Riesgos&amp;R&amp;"Calibri,Normal"&amp;K000000
 Plan de Tratamiento de Riesgos</oddHeader>
     <oddFooter>Page &amp;P</oddFooter>
   </headerFooter>
   <legacyDrawingHF r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="2">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="3">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Lista!$B$8:$B$9</xm:f>
           </x14:formula1>
-          <xm:sqref>B19:B28 B3:B17</xm:sqref>
+          <xm:sqref>C19:C28 C3:C17</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Lista!$D$8:$D$9</xm:f>
           </x14:formula1>
-          <xm:sqref>C19:C28 C3:C17</xm:sqref>
+          <xm:sqref>D19:D28 D3:D17</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Lista!$F$8:$F$14</xm:f>
+          </x14:formula1>
+          <xm:sqref>B3</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L11"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" topLeftCell="B1" zoomScale="140" zoomScaleNormal="100" zoomScalePageLayoutView="140" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="1" width="13.125" customWidth="1"/>
+    <col min="2" max="3" width="13.5" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1"/>
+    <col min="5" max="5" width="46.875" customWidth="1"/>
+    <col min="6" max="6" width="50.625" customWidth="1"/>
+    <col min="7" max="7" width="13.125" customWidth="1"/>
+    <col min="8" max="8" width="13.375" customWidth="1"/>
+    <col min="9" max="10" width="12.875" customWidth="1"/>
+    <col min="11" max="11" width="48.125" customWidth="1"/>
+    <col min="12" max="12" width="50.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" s="41" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="41" t="s">
+        <v>64</v>
+      </c>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="42"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="42"/>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="43" t="s">
+        <v>62</v>
+      </c>
+      <c r="E3" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="F3" s="43" t="s">
+        <v>60</v>
+      </c>
+      <c r="G3" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="I3" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="43" t="s">
+        <v>62</v>
+      </c>
+      <c r="K3" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="L3" s="43" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="26.25">
+      <c r="A4" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="44" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="E4" s="45" t="s">
+        <v>70</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="G4" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="44" t="s">
+        <v>66</v>
+      </c>
+      <c r="I4" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="K4" s="45" t="s">
+        <v>70</v>
+      </c>
+      <c r="L4" s="14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="38"/>
+      <c r="B5" s="46"/>
+      <c r="C5" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="G5" s="38"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" s="42"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="38"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="G6" s="38"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="38"/>
+      <c r="B7" s="47"/>
+      <c r="C7" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="G7" s="38"/>
+      <c r="H7" s="47"/>
+      <c r="I7" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="42"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="42"/>
+      <c r="I11" s="42"/>
+      <c r="J11" s="42"/>
+      <c r="K11" s="42"/>
+      <c r="L11" s="42"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="G4:G7"/>
+    <mergeCell ref="H4:H7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="1.5" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="5" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;L&amp;"Calibri,Normal"&amp;K000000&amp;G&amp;C&amp;"Calibri Bold,Negrita"&amp;14&amp;K000000
+Seguimiento al Tratamiento de los Riesgos&amp;R&amp;"Calibri,Normal"&amp;K000000
+Plan de Tratamiento de Riesgos</oddHeader>
+    <oddFooter>Page &amp;P</oddFooter>
+  </headerFooter>
+  <legacyDrawingHF r:id="rId2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Lista!$H$8:$H$11</xm:f>
+          </x14:formula1>
+          <xm:sqref>D4 J4</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2025,42 +2027,96 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B7:D9"/>
+  <dimension ref="B7:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
   <cols>
     <col min="2" max="2" width="13.375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="2:4">
-      <c r="B7" s="21" t="s">
+    <row r="7" spans="2:8">
+      <c r="B7" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8">
+      <c r="B8" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="21" t="s">
+      <c r="D8" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="8" spans="2:4">
-      <c r="B8" t="s">
+      <c r="F8" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="H8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8">
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" t="s">
         <v>17</v>
       </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4">
-      <c r="B9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" t="s">
-        <v>19</v>
-      </c>
+      <c r="F9" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="H9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8">
+      <c r="F10" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="H10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8">
+      <c r="F11" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="H11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8">
+      <c r="F12" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8">
+      <c r="F13" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8">
+      <c r="F14" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8">
+      <c r="F15" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
